--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\mydoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\djx\mydoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.世界观和学习路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>python web工程师职业规划（2）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,18 +46,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python编程环境建立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运行Python程序（交互式、命令行使用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python习惯（缩进语法与Python之禅）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Python基本数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,14 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列表操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序列与切片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>元组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>函数的特殊参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,18 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>while</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推导式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,14 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内建函数介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块的使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面向对象基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,11 +114,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>os库使用基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鸭子类型与多态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典及其操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元组、列表及其操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环之for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环之while</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内建函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂程序组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件控制之if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python习惯（缩进语法与、看懂错误信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.世界观(Python之禅)和学习路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python编程环境建立(安装Python和sublime text)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,19 +495,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41.375" customWidth="1"/>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="1" max="1" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="51.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -515,165 +515,165 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -154,15 +154,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python习惯（缩进语法与、看懂错误信息）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.世界观(Python之禅)和学习路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python编程环境建立(安装Python和sublime text)</t>
+    <t>Python编程环境建立(安装Python和pycharm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python习惯（缩进语法与错误信息）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +496,7 @@
   <dimension ref="A2:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -528,7 +528,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -538,7 +538,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>1.行业介绍和职业前景</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python基本数据运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Python中逻辑运算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>函数定义与调用基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推导式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,7 +154,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python习惯（缩进语法与错误信息）</t>
+    <t>数据库简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python数据库接口规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用DB-API操作SQLite3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用DB-API操作MariaDB数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDB使用基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pymongo使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoEngine操作数据库（1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoEngine操作数据库（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORM基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pony入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pony操作数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pony操作数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLAlchemy入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLAlchemy操作数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLAlchemy操作数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL语言基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库操作实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数定义与调用基础（变量作用域）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python变量与基本数据运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python基本语法习惯（缩进语法与错误信息）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B34"/>
+  <dimension ref="A2:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -515,7 +583,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -528,7 +596,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -538,7 +606,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -548,132 +616,260 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,22 +54,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python中逻辑运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列与切片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字符串操作基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>函数的特殊参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推导式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,6 +219,18 @@
   </si>
   <si>
     <t>Python基本语法习惯（缩进语法与错误信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python中逻辑运算与位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列的索引与切片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数的特殊参数与lambda</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +564,7 @@
   <dimension ref="A2:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -583,7 +583,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -596,7 +596,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -606,7 +606,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -616,127 +616,127 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -744,132 +744,132 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字典及其操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>元组、列表及其操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,6 +227,10 @@
   </si>
   <si>
     <t>函数的特殊参数与lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典、集合及其操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -583,7 +583,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -596,7 +596,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -606,7 +606,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -616,7 +616,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -626,42 +626,42 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
@@ -671,17 +671,17 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
@@ -696,7 +696,7 @@
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
@@ -736,7 +736,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -744,132 +744,132 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -102,135 +102,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>文件操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内建函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂程序组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件控制之if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.世界观(Python之禅)和学习路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python编程环境建立(安装Python和pycharm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python数据库接口规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用DB-API操作SQLite3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用DB-API操作MariaDB数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDB使用基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pymongo使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoEngine操作数据库（1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoEngine操作数据库（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORM基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pony入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pony操作数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pony操作数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLAlchemy入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLAlchemy操作数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLAlchemy操作数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL语言基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库操作实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数定义与调用基础（变量作用域）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python变量与基本数据运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python基本语法习惯（缩进语法与错误信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python中逻辑运算与位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列的索引与切片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数的特殊参数与lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典、集合及其操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>循环之for</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>循环之while</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内建函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复杂程序组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件控制之if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.世界观(Python之禅)和学习路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python编程环境建立(安装Python和pycharm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python数据库接口规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用DB-API操作SQLite3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用DB-API操作MariaDB数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MongoDB使用基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pymongo使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MongoEngine操作数据库（1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MongoEngine操作数据库（2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORM基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pony入门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pony操作数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pony操作数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQLAlchemy入门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQLAlchemy操作数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQLAlchemy操作数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL语言基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库操作实践</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数定义与调用基础（变量作用域）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python变量与基本数据运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python基本语法习惯（缩进语法与错误信息）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python中逻辑运算与位运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列的索引与切片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数的特殊参数与lambda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典、集合及其操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +564,7 @@
   <dimension ref="A2:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -583,7 +583,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -596,7 +596,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -606,7 +606,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -616,7 +616,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -626,7 +626,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -636,32 +636,32 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
@@ -671,17 +671,17 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
@@ -696,7 +696,7 @@
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
@@ -736,7 +736,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -744,132 +744,132 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
